--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\ezadmin-crawler\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF95CC-D8A6-4A16-81C4-28EF2D0D6683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1011A94D-0AB0-40CC-96E4-EAC4E5EA483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
+    <workbookView xWindow="5385" yWindow="1320" windowWidth="20310" windowHeight="13710" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,11 +140,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동화1!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카카오톡스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wkehdghk1!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +542,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\ezadmin-crawler\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1011A94D-0AB0-40CC-96E4-EAC4E5EA483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA3E1F8-3673-4DEA-BA68-A7B8CB1C575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1320" windowWidth="20310" windowHeight="13710" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +230,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +554,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,17 +600,17 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -648,47 +660,47 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
     </row>

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\ezadmin-crawler\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA3E1F8-3673-4DEA-BA68-A7B8CB1C575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9FE23-0C8B-4B29-AAE1-1CECC5A7DA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
@@ -86,12 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://wing.coupang.com/login</t>
-  </si>
-  <si>
-    <t>https://spc.ticketmonster.co.kr/member/login?return_url=%2F</t>
-  </si>
-  <si>
     <t>브랜디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,52 +93,62 @@
     <t>wldnjs1!!!</t>
   </si>
   <si>
+    <t>11번가</t>
+  </si>
+  <si>
+    <t>heaichang</t>
+  </si>
+  <si>
+    <t>https://soffice.11st.co.kr/view/intro</t>
+  </si>
+  <si>
+    <t>브리치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoblanc_official@naver.com</t>
+  </si>
+  <si>
+    <t>https://b-flow.co.kr/</t>
+  </si>
+  <si>
+    <t>지그재그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoblanc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wkehdghk1!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://spc.ticketmonster.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://admin.brandi.co.kr/login</t>
-  </si>
-  <si>
-    <t>11번가</t>
-  </si>
-  <si>
-    <t>heaichang</t>
-  </si>
-  <si>
-    <t>https://soffice.11st.co.kr/view/intro</t>
-  </si>
-  <si>
-    <t>브리치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoblanc_official@naver.com</t>
-  </si>
-  <si>
-    <t>https://b-flow.co.kr/</t>
-  </si>
-  <si>
-    <t>지그재그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://shop.zigzag.kr/#!/login</t>
-  </si>
-  <si>
-    <t>도메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoblanc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오톡스토어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wkehdghk1!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wing.coupang.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.zigzag.kr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +239,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +564,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -587,13 +597,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -601,7 +611,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -640,8 +650,8 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,58 +665,58 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -715,8 +725,8 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\ezadmin-crawler\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9FE23-0C8B-4B29-AAE1-1CECC5A7DA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC7914A-7128-4CBC-B70F-E7A1F007D6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,9 +239,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -564,7 +561,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,7 +647,7 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -665,7 +662,7 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -680,7 +677,7 @@
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -715,14 +712,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
